--- a/Input/Goodwin_1.xlsx
+++ b/Input/Goodwin_1.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">g1</t>
   </si>
   <si>
-    <t xml:space="preserve">-b1*R+((K)/(1+(beta*T)))</t>
+    <t xml:space="preserve">-(b1*R)+((K)/(1+(G*T)))</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">g2</t>
   </si>
   <si>
-    <t xml:space="preserve">g1*R-b2*L</t>
+    <t xml:space="preserve">(g1*R)-(b2*L)</t>
   </si>
   <si>
     <t xml:space="preserve">T</t>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">b1</t>
   </si>
   <si>
-    <t xml:space="preserve">g2*L-b3*T</t>
+    <t xml:space="preserve">(g2*L)-(b3*T)</t>
   </si>
   <si>
     <t xml:space="preserve">b2</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">K</t>
   </si>
   <si>
-    <t xml:space="preserve">beta</t>
+    <t xml:space="preserve">G</t>
   </si>
 </sst>
 </file>
@@ -94,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -182,10 +183,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E8"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.71"/>
